--- a/python_api_3/data/future_cases.xlsx
+++ b/python_api_3/data/future_cases.xlsx
@@ -2744,7 +2744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView topLeftCell="C10" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
